--- a/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja6.xlsx
+++ b/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja6.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t xml:space="preserve">I N F O R M E   E S T A D I S T I C O</t>
   </si>
@@ -20,7 +20,7 @@
     <t xml:space="preserve">Distrito:</t>
   </si>
   <si>
-    <t xml:space="preserve">56</t>
+    <t xml:space="preserve">34</t>
   </si>
   <si>
     <t xml:space="preserve">VI.-</t>
@@ -80,6 +80,15 @@
     <t xml:space="preserve">ENTRE NUCLEOS DE POBLACION EJIDAL O COMUNAL Y SOCIEDADES O ASOCIACIONES</t>
   </si>
   <si>
+    <t xml:space="preserve">d)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENTRE NUCLEOS DE POBLACION EJIDAL O COMUNAL Y COLONIA AGRICOLA QUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADOPTA DOMINIO PLENO</t>
+  </si>
+  <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
@@ -152,16 +161,10 @@
     <t xml:space="preserve">EN ACTOS O CONTRATOS QUE CONTRAVIENEN LAS LEYES AGRARIAS</t>
   </si>
   <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEBRERO</t>
+    <t xml:space="preserve">DICIEMBRE</t>
   </si>
   <si>
     <t xml:space="preserve">HOJA 6</t>
@@ -833,8 +836,12 @@
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16"/>
@@ -850,13 +857,11 @@
       <c r="P16"/>
     </row>
     <row r="17">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17"/>
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
@@ -873,9 +878,7 @@
     </row>
     <row r="18">
       <c r="A18"/>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
+      <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
@@ -910,13 +913,13 @@
       <c r="P19"/>
     </row>
     <row r="20">
-      <c r="A20"/>
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
       <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
@@ -933,10 +936,10 @@
     </row>
     <row r="21">
       <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
@@ -972,10 +975,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -983,22 +986,20 @@
       <c r="G23"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-      <c r="P23" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="P23" s="1"/>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24"/>
-      <c r="C24"/>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
@@ -1033,8 +1034,12 @@
     </row>
     <row r="26">
       <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
@@ -1050,12 +1055,8 @@
       <c r="P26"/>
     </row>
     <row r="27">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
+      <c r="A27"/>
+      <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
@@ -1108,8 +1109,12 @@
       <c r="P29"/>
     </row>
     <row r="30">
-      <c r="A30"/>
-      <c r="B30"/>
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
@@ -1126,12 +1131,8 @@
       <c r="P30"/>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>31</v>
-      </c>
+      <c r="A31"/>
+      <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
@@ -1149,9 +1150,7 @@
     </row>
     <row r="32">
       <c r="A32"/>
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
+      <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
@@ -1186,8 +1185,12 @@
       <c r="P33"/>
     </row>
     <row r="34">
-      <c r="A34"/>
-      <c r="B34"/>
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
@@ -1205,7 +1208,9 @@
     </row>
     <row r="35">
       <c r="A35"/>
-      <c r="B35"/>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
@@ -1219,15 +1224,13 @@
       <c r="M35"/>
       <c r="N35"/>
       <c r="O35"/>
-      <c r="P35"/>
+      <c r="P35" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" t="s">
-        <v>34</v>
-      </c>
+      <c r="A36"/>
+      <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36"/>
@@ -1280,14 +1283,20 @@
       <c r="P38"/>
     </row>
     <row r="39">
-      <c r="A39"/>
-      <c r="B39"/>
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
       <c r="F39"/>
       <c r="G39"/>
-      <c r="H39"/>
+      <c r="H39" t="s">
+        <v>25</v>
+      </c>
       <c r="I39"/>
       <c r="J39"/>
       <c r="K39"/>
@@ -1295,15 +1304,13 @@
       <c r="M39"/>
       <c r="N39"/>
       <c r="O39"/>
-      <c r="P39"/>
+      <c r="P39" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" t="s">
-        <v>36</v>
-      </c>
+      <c r="A40"/>
+      <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
@@ -1339,39 +1346,29 @@
     </row>
     <row r="42">
       <c r="A42"/>
-      <c r="B42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" t="s">
-        <v>37</v>
-      </c>
+      <c r="B42"/>
+      <c r="C42"/>
       <c r="D42"/>
       <c r="E42"/>
       <c r="F42"/>
       <c r="G42"/>
-      <c r="H42" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
-      <c r="O42" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
     </row>
     <row r="43">
-      <c r="A43"/>
-      <c r="B43"/>
+      <c r="A43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" t="s">
+        <v>39</v>
+      </c>
       <c r="C43"/>
       <c r="D43"/>
       <c r="E43"/>
@@ -1389,12 +1386,8 @@
     </row>
     <row r="44">
       <c r="A44"/>
-      <c r="B44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" t="s">
-        <v>38</v>
-      </c>
+      <c r="B44"/>
+      <c r="C44"/>
       <c r="D44"/>
       <c r="E44"/>
       <c r="F44"/>
@@ -1411,26 +1404,24 @@
     </row>
     <row r="45">
       <c r="A45"/>
-      <c r="B45"/>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
       <c r="C45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
       <c r="F45"/>
       <c r="G45"/>
-      <c r="H45" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
-      <c r="O45" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="O45" s="1"/>
       <c r="P45" s="1"/>
     </row>
     <row r="46">
@@ -1453,8 +1444,12 @@
     </row>
     <row r="47">
       <c r="A47"/>
-      <c r="B47"/>
-      <c r="C47"/>
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" t="s">
+        <v>41</v>
+      </c>
       <c r="D47"/>
       <c r="E47"/>
       <c r="F47"/>
@@ -1472,12 +1467,16 @@
     <row r="48">
       <c r="A48"/>
       <c r="B48"/>
-      <c r="C48"/>
+      <c r="C48" t="s">
+        <v>42</v>
+      </c>
       <c r="D48"/>
       <c r="E48"/>
       <c r="F48"/>
       <c r="G48"/>
-      <c r="H48"/>
+      <c r="H48" t="s">
+        <v>31</v>
+      </c>
       <c r="I48"/>
       <c r="J48"/>
       <c r="K48"/>
@@ -1488,12 +1487,8 @@
       <c r="P48"/>
     </row>
     <row r="49">
-      <c r="A49" t="s">
-        <v>40</v>
-      </c>
-      <c r="B49" t="s">
-        <v>41</v>
-      </c>
+      <c r="A49"/>
+      <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
       <c r="E49"/>
@@ -1506,12 +1501,8 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
-      <c r="O49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
     </row>
     <row r="50">
       <c r="A50"/>
@@ -1550,30 +1541,34 @@
       <c r="P51"/>
     </row>
     <row r="52">
-      <c r="A52"/>
-      <c r="B52"/>
+      <c r="A52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" t="s">
+        <v>44</v>
+      </c>
       <c r="C52"/>
       <c r="D52"/>
       <c r="E52"/>
       <c r="F52"/>
       <c r="G52"/>
       <c r="H52"/>
-      <c r="I52"/>
+      <c r="I52" t="s">
+        <v>14</v>
+      </c>
       <c r="J52"/>
       <c r="K52"/>
       <c r="L52"/>
       <c r="M52"/>
       <c r="N52"/>
       <c r="O52"/>
-      <c r="P52"/>
+      <c r="P52" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" t="s">
-        <v>42</v>
-      </c>
-      <c r="B53" t="s">
-        <v>43</v>
-      </c>
+      <c r="A53"/>
+      <c r="B53"/>
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53"/>
@@ -1609,12 +1604,8 @@
     </row>
     <row r="55">
       <c r="A55"/>
-      <c r="B55" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" t="s">
-        <v>44</v>
-      </c>
+      <c r="B55"/>
+      <c r="C55"/>
       <c r="D55"/>
       <c r="E55"/>
       <c r="F55"/>
@@ -1630,8 +1621,12 @@
       <c r="P55" s="1"/>
     </row>
     <row r="56">
-      <c r="A56"/>
-      <c r="B56"/>
+      <c r="A56" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" t="s">
+        <v>46</v>
+      </c>
       <c r="C56"/>
       <c r="D56"/>
       <c r="E56"/>
@@ -1649,48 +1644,42 @@
     </row>
     <row r="57">
       <c r="A57"/>
-      <c r="B57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" t="s">
-        <v>45</v>
-      </c>
+      <c r="B57"/>
+      <c r="C57"/>
       <c r="D57"/>
       <c r="E57"/>
       <c r="F57"/>
       <c r="G57"/>
-      <c r="H57" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
-      <c r="K57" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="K57" s="1"/>
       <c r="L57" s="1"/>
-      <c r="M57" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="M57" s="1"/>
       <c r="N57" s="1"/>
-      <c r="O57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P57" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
     </row>
     <row r="58">
       <c r="A58"/>
-      <c r="B58"/>
-      <c r="C58"/>
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" t="s">
+        <v>47</v>
+      </c>
       <c r="D58"/>
       <c r="E58"/>
       <c r="F58"/>
       <c r="G58"/>
-      <c r="H58"/>
+      <c r="H58" t="s">
+        <v>31</v>
+      </c>
       <c r="I58"/>
       <c r="J58"/>
-      <c r="K58"/>
+      <c r="K58" t="s">
+        <v>14</v>
+      </c>
       <c r="L58"/>
       <c r="M58"/>
       <c r="N58"/>
@@ -1717,8 +1706,12 @@
     </row>
     <row r="60">
       <c r="A60"/>
-      <c r="B60"/>
-      <c r="C60"/>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" t="s">
+        <v>48</v>
+      </c>
       <c r="D60"/>
       <c r="E60"/>
       <c r="F60"/>
@@ -1741,33 +1734,15 @@
       <c r="E61"/>
       <c r="F61"/>
       <c r="G61"/>
-      <c r="H61" t="s">
-        <v>33</v>
-      </c>
-      <c r="I61" t="s">
-        <v>14</v>
-      </c>
-      <c r="J61" t="s">
-        <v>14</v>
-      </c>
-      <c r="K61" t="s">
-        <v>28</v>
-      </c>
-      <c r="L61" t="s">
-        <v>47</v>
-      </c>
-      <c r="M61" t="s">
-        <v>46</v>
-      </c>
-      <c r="N61" t="s">
-        <v>47</v>
-      </c>
-      <c r="O61" t="s">
-        <v>35</v>
-      </c>
-      <c r="P61" t="s">
-        <v>48</v>
-      </c>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
     </row>
     <row r="62">
       <c r="A62"/>
@@ -1793,12 +1768,8 @@
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63"/>
-      <c r="F63" t="s">
-        <v>49</v>
-      </c>
-      <c r="G63" t="n">
-        <v>2023</v>
-      </c>
+      <c r="F63"/>
+      <c r="G63"/>
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63"/>
@@ -1806,10 +1777,86 @@
       <c r="L63"/>
       <c r="M63"/>
       <c r="N63"/>
-      <c r="O63" t="s">
+      <c r="O63"/>
+      <c r="P63"/>
+    </row>
+    <row r="64">
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64" t="s">
+        <v>45</v>
+      </c>
+      <c r="I64" t="s">
+        <v>14</v>
+      </c>
+      <c r="J64" t="s">
+        <v>49</v>
+      </c>
+      <c r="K64" t="s">
+        <v>14</v>
+      </c>
+      <c r="L64" t="s">
+        <v>49</v>
+      </c>
+      <c r="M64" t="s">
+        <v>49</v>
+      </c>
+      <c r="N64" t="s">
+        <v>49</v>
+      </c>
+      <c r="O64" t="s">
+        <v>49</v>
+      </c>
+      <c r="P64" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65"/>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+    </row>
+    <row r="66">
+      <c r="A66"/>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66" t="s">
         <v>50</v>
       </c>
-      <c r="P63"/>
+      <c r="G66" t="n">
+        <v>2024</v>
+      </c>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66" t="s">
+        <v>51</v>
+      </c>
+      <c r="P66"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja6.xlsx
+++ b/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja6.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
   <si>
     <t xml:space="preserve">I N F O R M E   E S T A D I S T I C O</t>
   </si>
@@ -20,7 +20,7 @@
     <t xml:space="preserve">Distrito:</t>
   </si>
   <si>
-    <t xml:space="preserve">34</t>
+    <t xml:space="preserve">H01_01</t>
   </si>
   <si>
     <t xml:space="preserve">VI.-</t>
@@ -68,18 +68,99 @@
     <t xml:space="preserve">ENTRE DOS O MAS NUCLEOS DE POBLACION EJIDAL O COMUNAL.</t>
   </si>
   <si>
+    <t xml:space="preserve">H06_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_113</t>
+  </si>
+  <si>
     <t xml:space="preserve">b)</t>
   </si>
   <si>
     <t xml:space="preserve">ENTRE NUCLEOS DE POBLACION EJIDAL O COMUNAL Y PEQUEÑOS PROPIETARIOS</t>
   </si>
   <si>
+    <t xml:space="preserve">H06_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_114</t>
+  </si>
+  <si>
     <t xml:space="preserve">c)</t>
   </si>
   <si>
     <t xml:space="preserve">ENTRE NUCLEOS DE POBLACION EJIDAL O COMUNAL Y SOCIEDADES O ASOCIACIONES</t>
   </si>
   <si>
+    <t xml:space="preserve">H06_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_115</t>
+  </si>
+  <si>
     <t xml:space="preserve">d)</t>
   </si>
   <si>
@@ -89,6 +170,33 @@
     <t xml:space="preserve">ADOPTA DOMINIO PLENO</t>
   </si>
   <si>
+    <t xml:space="preserve">H06_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_116</t>
+  </si>
+  <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
@@ -104,15 +212,96 @@
     <t xml:space="preserve">FUERA DE JUICIO, O,</t>
   </si>
   <si>
+    <t xml:space="preserve">H06_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_117</t>
+  </si>
+  <si>
     <t xml:space="preserve">POR  ACTOS DE PARTICULARES;</t>
   </si>
   <si>
+    <t xml:space="preserve">H06_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_118</t>
+  </si>
+  <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
     <t xml:space="preserve">RECONOCIMIENTO DEL REGIMEN COMUNAL (FRACC. III)</t>
   </si>
   <si>
+    <t xml:space="preserve">H06_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_119</t>
+  </si>
+  <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
@@ -122,12 +311,66 @@
     <t xml:space="preserve">DE AUTORIDADES AGRARIAS (FRACC.IV)</t>
   </si>
   <si>
+    <t xml:space="preserve">H06_08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_120</t>
+  </si>
+  <si>
     <t xml:space="preserve">5</t>
   </si>
   <si>
     <t xml:space="preserve">CONFLICTOS DERIVADOS DE LA TENENCIA DE LA TIERRA (FRACC. V)</t>
   </si>
   <si>
+    <t xml:space="preserve">H06_09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_121</t>
+  </si>
+  <si>
     <t xml:space="preserve">6</t>
   </si>
   <si>
@@ -137,18 +380,99 @@
     <t xml:space="preserve">DE EJIDATARIOS, COMUNEROS, POSESIONARIOS Y AVECINDADOS ENTRE SI;</t>
   </si>
   <si>
+    <t xml:space="preserve">H06_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_122</t>
+  </si>
+  <si>
     <t xml:space="preserve">ENTRE EJIDATARIOS, COMUNEROS, POSESIONARIOS Y AVECINDADOS  CON</t>
   </si>
   <si>
     <t xml:space="preserve">ORGANOS DEL NUCLEO DE POBLACION</t>
   </si>
   <si>
+    <t xml:space="preserve">H06_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_123</t>
+  </si>
+  <si>
     <t xml:space="preserve">7</t>
   </si>
   <si>
     <t xml:space="preserve">SUCESION DE DERECHOS AGRARIOS (FRACC. VII)</t>
   </si>
   <si>
+    <t xml:space="preserve">H06_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_124</t>
+  </si>
+  <si>
     <t xml:space="preserve">8</t>
   </si>
   <si>
@@ -158,13 +482,67 @@
     <t xml:space="preserve">LAS HIPOTESIS CONTENIDAS EN LA FRACC. VIII Y IX DEL ART. 27 CONST.</t>
   </si>
   <si>
+    <t xml:space="preserve">H06_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_125</t>
+  </si>
+  <si>
     <t xml:space="preserve">EN ACTOS O CONTRATOS QUE CONTRAVIENEN LAS LEYES AGRARIAS</t>
   </si>
   <si>
+    <t xml:space="preserve">H06_14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H06_126</t>
+  </si>
+  <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">DICIEMBRE</t>
+    <t xml:space="preserve">H01_03</t>
   </si>
   <si>
     <t xml:space="preserve">HOJA 6</t>
@@ -726,15 +1104,33 @@
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11"/>
@@ -757,24 +1153,42 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13"/>
@@ -797,24 +1211,42 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15"/>
@@ -837,10 +1269,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -860,21 +1292,39 @@
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
+      <c r="H17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18"/>
@@ -914,10 +1364,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -937,22 +1387,22 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
     </row>
     <row r="22">
       <c r="A22"/>
@@ -978,41 +1428,59 @@
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
+      <c r="H24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25"/>
@@ -1035,24 +1503,42 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26"/>
+      <c r="H26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27"/>
@@ -1062,15 +1548,15 @@
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
     </row>
     <row r="28">
       <c r="A28"/>
@@ -1110,25 +1596,43 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
-      <c r="P30"/>
+      <c r="H30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31"/>
@@ -1156,15 +1660,15 @@
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
     </row>
     <row r="33">
       <c r="A33"/>
@@ -1186,10 +1690,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -1209,23 +1713,39 @@
     <row r="35">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
-      <c r="P35" t="s">
-        <v>14</v>
+      <c r="H35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="36">
@@ -1236,15 +1756,15 @@
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
     </row>
     <row r="37">
       <c r="A37"/>
@@ -1284,28 +1804,42 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39"/>
       <c r="F39"/>
       <c r="G39"/>
-      <c r="H39" t="s">
-        <v>25</v>
-      </c>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39"/>
-      <c r="P39" t="s">
-        <v>14</v>
+      <c r="H39" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="40">
@@ -1352,22 +1886,22 @@
       <c r="E42"/>
       <c r="F42"/>
       <c r="G42"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="C43"/>
       <c r="D43"/>
@@ -1408,21 +1942,39 @@
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
       <c r="F45"/>
       <c r="G45"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
+      <c r="H45" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46"/>
@@ -1445,10 +1997,10 @@
     <row r="47">
       <c r="A47"/>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C47" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="D47"/>
       <c r="E47"/>
@@ -1468,23 +2020,39 @@
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="D48"/>
       <c r="E48"/>
       <c r="F48"/>
       <c r="G48"/>
-      <c r="H48" t="s">
-        <v>31</v>
-      </c>
-      <c r="I48"/>
-      <c r="J48"/>
-      <c r="K48"/>
-      <c r="L48"/>
-      <c r="M48"/>
-      <c r="N48"/>
-      <c r="O48"/>
-      <c r="P48"/>
+      <c r="H48" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O48" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49"/>
@@ -1494,15 +2062,15 @@
       <c r="E49"/>
       <c r="F49"/>
       <c r="G49"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
     </row>
     <row r="50">
       <c r="A50"/>
@@ -1542,28 +2110,42 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="C52"/>
       <c r="D52"/>
       <c r="E52"/>
       <c r="F52"/>
       <c r="G52"/>
-      <c r="H52"/>
-      <c r="I52" t="s">
-        <v>14</v>
-      </c>
-      <c r="J52"/>
-      <c r="K52"/>
-      <c r="L52"/>
-      <c r="M52"/>
-      <c r="N52"/>
-      <c r="O52"/>
-      <c r="P52" t="s">
-        <v>14</v>
+      <c r="H52" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P52" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="53">
@@ -1610,22 +2192,22 @@
       <c r="E55"/>
       <c r="F55"/>
       <c r="G55"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="B56" t="s">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="C56"/>
       <c r="D56"/>
@@ -1650,15 +2232,15 @@
       <c r="E57"/>
       <c r="F57"/>
       <c r="G57"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
     </row>
     <row r="58">
       <c r="A58"/>
@@ -1666,25 +2248,39 @@
         <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>47</v>
+        <v>155</v>
       </c>
       <c r="D58"/>
       <c r="E58"/>
       <c r="F58"/>
       <c r="G58"/>
-      <c r="H58" t="s">
-        <v>31</v>
-      </c>
-      <c r="I58"/>
-      <c r="J58"/>
-      <c r="K58" t="s">
-        <v>14</v>
-      </c>
-      <c r="L58"/>
-      <c r="M58"/>
-      <c r="N58"/>
-      <c r="O58"/>
-      <c r="P58"/>
+      <c r="H58" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59"/>
@@ -1707,24 +2303,42 @@
     <row r="60">
       <c r="A60"/>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C60" t="s">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="D60"/>
       <c r="E60"/>
       <c r="F60"/>
       <c r="G60"/>
-      <c r="H60"/>
-      <c r="I60"/>
-      <c r="J60"/>
-      <c r="K60"/>
-      <c r="L60"/>
-      <c r="M60"/>
-      <c r="N60"/>
-      <c r="O60"/>
-      <c r="P60"/>
+      <c r="H60" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61"/>
@@ -1789,31 +2403,31 @@
       <c r="F64"/>
       <c r="G64"/>
       <c r="H64" t="s">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="I64" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="J64" t="s">
-        <v>49</v>
+        <v>175</v>
       </c>
       <c r="K64" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="L64" t="s">
-        <v>49</v>
+        <v>175</v>
       </c>
       <c r="M64" t="s">
-        <v>49</v>
+        <v>175</v>
       </c>
       <c r="N64" t="s">
-        <v>49</v>
+        <v>175</v>
       </c>
       <c r="O64" t="s">
-        <v>49</v>
+        <v>175</v>
       </c>
       <c r="P64" t="s">
-        <v>31</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65">
@@ -1841,7 +2455,7 @@
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>50</v>
+        <v>176</v>
       </c>
       <c r="G66" t="n">
         <v>2024</v>
@@ -1854,7 +2468,7 @@
       <c r="M66"/>
       <c r="N66"/>
       <c r="O66" t="s">
-        <v>51</v>
+        <v>177</v>
       </c>
       <c r="P66"/>
     </row>

--- a/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja6.xlsx
+++ b/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja6.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t xml:space="preserve">I N F O R M E   E S T A D I S T I C O</t>
   </si>
@@ -20,7 +20,7 @@
     <t xml:space="preserve">Distrito:</t>
   </si>
   <si>
-    <t xml:space="preserve">H01_01</t>
+    <t xml:space="preserve">34</t>
   </si>
   <si>
     <t xml:space="preserve">VI.-</t>
@@ -68,99 +68,18 @@
     <t xml:space="preserve">ENTRE DOS O MAS NUCLEOS DE POBLACION EJIDAL O COMUNAL.</t>
   </si>
   <si>
-    <t xml:space="preserve">H06_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_113</t>
-  </si>
-  <si>
     <t xml:space="preserve">b)</t>
   </si>
   <si>
     <t xml:space="preserve">ENTRE NUCLEOS DE POBLACION EJIDAL O COMUNAL Y PEQUEÑOS PROPIETARIOS</t>
   </si>
   <si>
-    <t xml:space="preserve">H06_02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_114</t>
-  </si>
-  <si>
     <t xml:space="preserve">c)</t>
   </si>
   <si>
     <t xml:space="preserve">ENTRE NUCLEOS DE POBLACION EJIDAL O COMUNAL Y SOCIEDADES O ASOCIACIONES</t>
   </si>
   <si>
-    <t xml:space="preserve">H06_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_115</t>
-  </si>
-  <si>
     <t xml:space="preserve">d)</t>
   </si>
   <si>
@@ -170,33 +89,6 @@
     <t xml:space="preserve">ADOPTA DOMINIO PLENO</t>
   </si>
   <si>
-    <t xml:space="preserve">H06_04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_116</t>
-  </si>
-  <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
@@ -212,96 +104,15 @@
     <t xml:space="preserve">FUERA DE JUICIO, O,</t>
   </si>
   <si>
-    <t xml:space="preserve">H06_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_117</t>
-  </si>
-  <si>
     <t xml:space="preserve">POR  ACTOS DE PARTICULARES;</t>
   </si>
   <si>
-    <t xml:space="preserve">H06_06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_118</t>
-  </si>
-  <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
     <t xml:space="preserve">RECONOCIMIENTO DEL REGIMEN COMUNAL (FRACC. III)</t>
   </si>
   <si>
-    <t xml:space="preserve">H06_07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_119</t>
-  </si>
-  <si>
     <t xml:space="preserve">4</t>
   </si>
   <si>
@@ -311,66 +122,12 @@
     <t xml:space="preserve">DE AUTORIDADES AGRARIAS (FRACC.IV)</t>
   </si>
   <si>
-    <t xml:space="preserve">H06_08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_120</t>
-  </si>
-  <si>
     <t xml:space="preserve">5</t>
   </si>
   <si>
     <t xml:space="preserve">CONFLICTOS DERIVADOS DE LA TENENCIA DE LA TIERRA (FRACC. V)</t>
   </si>
   <si>
-    <t xml:space="preserve">H06_09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_121</t>
-  </si>
-  <si>
     <t xml:space="preserve">6</t>
   </si>
   <si>
@@ -380,99 +137,18 @@
     <t xml:space="preserve">DE EJIDATARIOS, COMUNEROS, POSESIONARIOS Y AVECINDADOS ENTRE SI;</t>
   </si>
   <si>
-    <t xml:space="preserve">H06_10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_122</t>
-  </si>
-  <si>
     <t xml:space="preserve">ENTRE EJIDATARIOS, COMUNEROS, POSESIONARIOS Y AVECINDADOS  CON</t>
   </si>
   <si>
     <t xml:space="preserve">ORGANOS DEL NUCLEO DE POBLACION</t>
   </si>
   <si>
-    <t xml:space="preserve">H06_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_123</t>
-  </si>
-  <si>
     <t xml:space="preserve">7</t>
   </si>
   <si>
     <t xml:space="preserve">SUCESION DE DERECHOS AGRARIOS (FRACC. VII)</t>
   </si>
   <si>
-    <t xml:space="preserve">H06_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_124</t>
-  </si>
-  <si>
     <t xml:space="preserve">8</t>
   </si>
   <si>
@@ -482,67 +158,13 @@
     <t xml:space="preserve">LAS HIPOTESIS CONTENIDAS EN LA FRACC. VIII Y IX DEL ART. 27 CONST.</t>
   </si>
   <si>
-    <t xml:space="preserve">H06_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_69</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_125</t>
-  </si>
-  <si>
     <t xml:space="preserve">EN ACTOS O CONTRATOS QUE CONTRAVIENEN LAS LEYES AGRARIAS</t>
   </si>
   <si>
-    <t xml:space="preserve">H06_14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H06_126</t>
-  </si>
-  <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">H01_03</t>
+    <t xml:space="preserve">DICIEMBRE</t>
   </si>
   <si>
     <t xml:space="preserve">HOJA 6</t>
@@ -1104,33 +726,15 @@
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
-      <c r="H10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
     </row>
     <row r="11">
       <c r="A11"/>
@@ -1153,42 +757,24 @@
     <row r="12">
       <c r="A12"/>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
-      <c r="H12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
     </row>
     <row r="13">
       <c r="A13"/>
@@ -1211,42 +797,24 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
-      <c r="H14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
     </row>
     <row r="15">
       <c r="A15"/>
@@ -1269,10 +837,10 @@
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -1292,39 +860,21 @@
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17"/>
-      <c r="H17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
     </row>
     <row r="18">
       <c r="A18"/>
@@ -1364,10 +914,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -1387,7 +937,7 @@
     <row r="21">
       <c r="A21"/>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -1428,7 +978,7 @@
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -1448,39 +998,21 @@
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24"/>
-      <c r="H24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
     </row>
     <row r="25">
       <c r="A25"/>
@@ -1503,42 +1035,24 @@
     <row r="26">
       <c r="A26"/>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
-      <c r="H26" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="N26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
     </row>
     <row r="27">
       <c r="A27"/>
@@ -1596,43 +1110,25 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30"/>
-      <c r="H30" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>95</v>
-      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
     </row>
     <row r="31">
       <c r="A31"/>
@@ -1690,10 +1186,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -1713,39 +1209,23 @@
     <row r="35">
       <c r="A35"/>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
-      <c r="H35" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M35" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>106</v>
-      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
       <c r="P35" s="1" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
@@ -1804,10 +1284,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="C39"/>
       <c r="D39"/>
@@ -1815,31 +1295,17 @@
       <c r="F39"/>
       <c r="G39"/>
       <c r="H39" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="M39" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>117</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
       <c r="P39" s="1" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
@@ -1898,10 +1364,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="C43"/>
       <c r="D43"/>
@@ -1942,39 +1408,21 @@
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="D45"/>
       <c r="E45"/>
       <c r="F45"/>
       <c r="G45"/>
-      <c r="H45" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O45" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
     </row>
     <row r="46">
       <c r="A46"/>
@@ -1997,10 +1445,10 @@
     <row r="47">
       <c r="A47"/>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C47" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="D47"/>
       <c r="E47"/>
@@ -2020,39 +1468,23 @@
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="D48"/>
       <c r="E48"/>
       <c r="F48"/>
       <c r="G48"/>
       <c r="H48" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="N48" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="O48" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>141</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
     </row>
     <row r="49">
       <c r="A49"/>
@@ -2110,42 +1542,28 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>142</v>
+        <v>43</v>
       </c>
       <c r="B52" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="C52"/>
       <c r="D52"/>
       <c r="E52"/>
       <c r="F52"/>
       <c r="G52"/>
-      <c r="H52" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="H52" s="1"/>
       <c r="I52" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>151</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
       <c r="P52" s="1" t="s">
-        <v>152</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53">
@@ -2204,10 +1622,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="B56" t="s">
-        <v>154</v>
+        <v>46</v>
       </c>
       <c r="C56"/>
       <c r="D56"/>
@@ -2248,39 +1666,25 @@
         <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>155</v>
+        <v>47</v>
       </c>
       <c r="D58"/>
       <c r="E58"/>
       <c r="F58"/>
       <c r="G58"/>
       <c r="H58" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>158</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
       <c r="K58" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="P58" s="1" t="s">
-        <v>164</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
     </row>
     <row r="59">
       <c r="A59"/>
@@ -2303,42 +1707,24 @@
     <row r="60">
       <c r="A60"/>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C60" t="s">
-        <v>165</v>
+        <v>48</v>
       </c>
       <c r="D60"/>
       <c r="E60"/>
       <c r="F60"/>
       <c r="G60"/>
-      <c r="H60" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="O60" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>174</v>
-      </c>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
     </row>
     <row r="61">
       <c r="A61"/>
@@ -2403,31 +1789,31 @@
       <c r="F64"/>
       <c r="G64"/>
       <c r="H64" t="s">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="I64" t="s">
-        <v>175</v>
+        <v>14</v>
       </c>
       <c r="J64" t="s">
-        <v>175</v>
+        <v>49</v>
       </c>
       <c r="K64" t="s">
-        <v>175</v>
+        <v>14</v>
       </c>
       <c r="L64" t="s">
-        <v>175</v>
+        <v>49</v>
       </c>
       <c r="M64" t="s">
-        <v>175</v>
+        <v>49</v>
       </c>
       <c r="N64" t="s">
-        <v>175</v>
+        <v>49</v>
       </c>
       <c r="O64" t="s">
-        <v>175</v>
+        <v>49</v>
       </c>
       <c r="P64" t="s">
-        <v>175</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65">
@@ -2455,7 +1841,7 @@
       <c r="D66"/>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
       <c r="G66" t="n">
         <v>2024</v>
@@ -2468,7 +1854,7 @@
       <c r="M66"/>
       <c r="N66"/>
       <c r="O66" t="s">
-        <v>177</v>
+        <v>51</v>
       </c>
       <c r="P66"/>
     </row>

--- a/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja6.xlsx
+++ b/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja6.xlsx
@@ -164,7 +164,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">DICIEMBRE</t>
+    <t xml:space="preserve">Diciembre</t>
   </si>
   <si>
     <t xml:space="preserve">HOJA 6</t>
